--- a/contratos/contratos-3-2012.xlsx
+++ b/contratos/contratos-3-2012.xlsx
@@ -535,7 +535,7 @@
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -547,7 +547,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -598,7 +598,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>JACOBI SERGIO JAVIER</t>
@@ -1057,430 +1057,430 @@
     <t>96</t>
   </si>
   <si>
-    <t>14.525,00</t>
-  </si>
-  <si>
-    <t>6.679,80</t>
-  </si>
-  <si>
-    <t>4.997,42</t>
-  </si>
-  <si>
-    <t>1.125,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>3.292,80</t>
-  </si>
-  <si>
-    <t>104.029,39</t>
-  </si>
-  <si>
-    <t>1.562,70</t>
-  </si>
-  <si>
-    <t>4.589,25</t>
-  </si>
-  <si>
-    <t>4.541,51</t>
-  </si>
-  <si>
-    <t>6.360,12</t>
-  </si>
-  <si>
-    <t>522,00</t>
-  </si>
-  <si>
-    <t>961,00</t>
-  </si>
-  <si>
-    <t>8.980,59</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>488,00</t>
-  </si>
-  <si>
-    <t>845,76</t>
-  </si>
-  <si>
-    <t>19.834,69</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>1.521,93</t>
-  </si>
-  <si>
-    <t>48,52</t>
-  </si>
-  <si>
-    <t>0,60</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>228,00</t>
-  </si>
-  <si>
-    <t>4.853,87</t>
-  </si>
-  <si>
-    <t>1.706,00</t>
-  </si>
-  <si>
-    <t>687,28</t>
-  </si>
-  <si>
-    <t>342,50</t>
-  </si>
-  <si>
-    <t>659,04</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>2.595,00</t>
-  </si>
-  <si>
-    <t>155,66</t>
-  </si>
-  <si>
-    <t>31.986,02</t>
-  </si>
-  <si>
-    <t>1.026,60</t>
-  </si>
-  <si>
-    <t>466,30</t>
-  </si>
-  <si>
-    <t>12.400,00</t>
-  </si>
-  <si>
-    <t>167,14</t>
-  </si>
-  <si>
-    <t>36,04</t>
-  </si>
-  <si>
-    <t>338,94</t>
-  </si>
-  <si>
-    <t>2.241,75</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>13.160,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>18.144,00</t>
-  </si>
-  <si>
-    <t>128,00</t>
-  </si>
-  <si>
-    <t>214,50</t>
-  </si>
-  <si>
-    <t>4.659,60</t>
-  </si>
-  <si>
-    <t>84,79</t>
-  </si>
-  <si>
-    <t>1.803,62</t>
-  </si>
-  <si>
-    <t>5.030,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>14.937,14</t>
-  </si>
-  <si>
-    <t>4.924,70</t>
-  </si>
-  <si>
-    <t>132.870,00</t>
-  </si>
-  <si>
-    <t>8.999,15</t>
-  </si>
-  <si>
-    <t>995,41</t>
-  </si>
-  <si>
-    <t>43,43</t>
-  </si>
-  <si>
-    <t>2.943,70</t>
-  </si>
-  <si>
-    <t>40,69</t>
-  </si>
-  <si>
-    <t>144,90</t>
-  </si>
-  <si>
-    <t>23,00</t>
-  </si>
-  <si>
-    <t>59,00</t>
-  </si>
-  <si>
-    <t>77,00</t>
-  </si>
-  <si>
-    <t>34,59</t>
-  </si>
-  <si>
-    <t>6.795,00</t>
-  </si>
-  <si>
-    <t>920,80</t>
-  </si>
-  <si>
-    <t>1.125,50</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>17,97</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>1.307,00</t>
-  </si>
-  <si>
-    <t>7.500,06</t>
-  </si>
-  <si>
-    <t>7.644,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>2.785,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>327,41</t>
-  </si>
-  <si>
-    <t>84,57</t>
-  </si>
-  <si>
-    <t>1.718,00</t>
-  </si>
-  <si>
-    <t>103,04</t>
-  </si>
-  <si>
-    <t>326.653,70</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>7.393,99</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>3.320,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.652,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>1.010,00</t>
-  </si>
-  <si>
-    <t>3.130,00</t>
-  </si>
-  <si>
-    <t>2.870,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>18.335,00</t>
-  </si>
-  <si>
-    <t>585,00</t>
-  </si>
-  <si>
-    <t>595,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>10,08</t>
-  </si>
-  <si>
-    <t>837,32</t>
-  </si>
-  <si>
-    <t>6.395,00</t>
-  </si>
-  <si>
-    <t>112,32</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>724,00</t>
-  </si>
-  <si>
-    <t>44,00</t>
-  </si>
-  <si>
-    <t>1.350,60</t>
-  </si>
-  <si>
-    <t>7,26</t>
-  </si>
-  <si>
-    <t>883,00</t>
-  </si>
-  <si>
-    <t>804,49</t>
-  </si>
-  <si>
-    <t>637,80</t>
-  </si>
-  <si>
-    <t>117.364,20</t>
-  </si>
-  <si>
-    <t>2.616,29</t>
-  </si>
-  <si>
-    <t>836,11</t>
-  </si>
-  <si>
-    <t>12.630,00</t>
-  </si>
-  <si>
-    <t>377.623,20</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>201.400,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>213.896,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>207.261,00</t>
-  </si>
-  <si>
-    <t>228.984,00</t>
-  </si>
-  <si>
-    <t>207.000,00</t>
-  </si>
-  <si>
-    <t>204.524,00</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>52,50</t>
+    <t>14525.00</t>
+  </si>
+  <si>
+    <t>6679.80</t>
+  </si>
+  <si>
+    <t>4997.42</t>
+  </si>
+  <si>
+    <t>1125.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>3292.80</t>
+  </si>
+  <si>
+    <t>104029.39</t>
+  </si>
+  <si>
+    <t>1562.70</t>
+  </si>
+  <si>
+    <t>4589.25</t>
+  </si>
+  <si>
+    <t>4541.51</t>
+  </si>
+  <si>
+    <t>6360.12</t>
+  </si>
+  <si>
+    <t>522.00</t>
+  </si>
+  <si>
+    <t>961.00</t>
+  </si>
+  <si>
+    <t>8980.59</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>845.76</t>
+  </si>
+  <si>
+    <t>19834.69</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>1521.93</t>
+  </si>
+  <si>
+    <t>48.52</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>4853.87</t>
+  </si>
+  <si>
+    <t>1706.00</t>
+  </si>
+  <si>
+    <t>687.28</t>
+  </si>
+  <si>
+    <t>342.50</t>
+  </si>
+  <si>
+    <t>659.04</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>2595.00</t>
+  </si>
+  <si>
+    <t>155.66</t>
+  </si>
+  <si>
+    <t>31986.02</t>
+  </si>
+  <si>
+    <t>1026.60</t>
+  </si>
+  <si>
+    <t>466.30</t>
+  </si>
+  <si>
+    <t>12400.00</t>
+  </si>
+  <si>
+    <t>167.14</t>
+  </si>
+  <si>
+    <t>36.04</t>
+  </si>
+  <si>
+    <t>338.94</t>
+  </si>
+  <si>
+    <t>2241.75</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>13160.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>18144.00</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>214.50</t>
+  </si>
+  <si>
+    <t>4659.60</t>
+  </si>
+  <si>
+    <t>84.79</t>
+  </si>
+  <si>
+    <t>1803.62</t>
+  </si>
+  <si>
+    <t>5030.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>14937.14</t>
+  </si>
+  <si>
+    <t>4924.70</t>
+  </si>
+  <si>
+    <t>132870.00</t>
+  </si>
+  <si>
+    <t>8999.15</t>
+  </si>
+  <si>
+    <t>995.41</t>
+  </si>
+  <si>
+    <t>43.43</t>
+  </si>
+  <si>
+    <t>2943.70</t>
+  </si>
+  <si>
+    <t>40.69</t>
+  </si>
+  <si>
+    <t>144.90</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>34.59</t>
+  </si>
+  <si>
+    <t>6795.00</t>
+  </si>
+  <si>
+    <t>920.80</t>
+  </si>
+  <si>
+    <t>1125.50</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>17.97</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>1307.00</t>
+  </si>
+  <si>
+    <t>7500.06</t>
+  </si>
+  <si>
+    <t>7644.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>2785.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>327.41</t>
+  </si>
+  <si>
+    <t>84.57</t>
+  </si>
+  <si>
+    <t>1718.00</t>
+  </si>
+  <si>
+    <t>103.04</t>
+  </si>
+  <si>
+    <t>326653.70</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>7393.99</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>3320.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2652.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>1010.00</t>
+  </si>
+  <si>
+    <t>3130.00</t>
+  </si>
+  <si>
+    <t>2870.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>18335.00</t>
+  </si>
+  <si>
+    <t>585.00</t>
+  </si>
+  <si>
+    <t>595.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>837.32</t>
+  </si>
+  <si>
+    <t>6395.00</t>
+  </si>
+  <si>
+    <t>112.32</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>724.00</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>1350.60</t>
+  </si>
+  <si>
+    <t>7.26</t>
+  </si>
+  <si>
+    <t>883.00</t>
+  </si>
+  <si>
+    <t>804.49</t>
+  </si>
+  <si>
+    <t>637.80</t>
+  </si>
+  <si>
+    <t>117364.20</t>
+  </si>
+  <si>
+    <t>2616.29</t>
+  </si>
+  <si>
+    <t>836.11</t>
+  </si>
+  <si>
+    <t>12630.00</t>
+  </si>
+  <si>
+    <t>377623.20</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>201400.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>213896.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>207261.00</t>
+  </si>
+  <si>
+    <t>228984.00</t>
+  </si>
+  <si>
+    <t>207000.00</t>
+  </si>
+  <si>
+    <t>204524.00</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>52.50</t>
   </si>
 </sst>
 </file>
